--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCDF/15/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCDF/15/seed3/result_data_RandomForest.xlsx
@@ -525,7 +525,7 @@
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>12.9159</v>
+        <v>12.5045</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         <v>-8.59</v>
       </c>
       <c r="E6" t="n">
-        <v>12.1047</v>
+        <v>11.8242</v>
       </c>
     </row>
     <row r="7">
@@ -556,7 +556,7 @@
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.176499999999996</v>
+        <v>-7.189299999999998</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -567,7 +567,7 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>4.884600000000002</v>
+        <v>4.537100000000003</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
@@ -593,7 +593,7 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>9.566099999999986</v>
+        <v>9.725099999999989</v>
       </c>
     </row>
     <row r="10">
@@ -601,7 +601,7 @@
         <v>-18.76</v>
       </c>
       <c r="B10" t="n">
-        <v>8.615000000000004</v>
+        <v>8.583900000000005</v>
       </c>
       <c r="C10" t="n">
         <v>-10.58</v>
@@ -610,7 +610,7 @@
         <v>-8.93</v>
       </c>
       <c r="E10" t="n">
-        <v>11.5543</v>
+        <v>11.5666</v>
       </c>
     </row>
     <row r="11">
@@ -635,7 +635,7 @@
         <v>-24</v>
       </c>
       <c r="B12" t="n">
-        <v>5.568900000000003</v>
+        <v>5.808800000000002</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -655,7 +655,7 @@
         <v>4.42</v>
       </c>
       <c r="C13" t="n">
-        <v>-12.31519999999999</v>
+        <v>-12.8073</v>
       </c>
       <c r="D13" t="n">
         <v>-8.92</v>
@@ -737,7 +737,7 @@
         <v>-23.05</v>
       </c>
       <c r="B18" t="n">
-        <v>4.930800000000006</v>
+        <v>4.988900000000006</v>
       </c>
       <c r="C18" t="n">
         <v>-15.19</v>
@@ -777,7 +777,7 @@
         <v>-14.65</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.173900000000003</v>
+        <v>-8.283199999999997</v>
       </c>
       <c r="E20" t="n">
         <v>13.73</v>
